--- a/biology/Médecine/John_Bostock_(médecin)/John_Bostock_(médecin).xlsx
+++ b/biology/Médecine/John_Bostock_(médecin)/John_Bostock_(médecin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>John_Bostock_(m%C3%A9decin)</t>
+          <t>John_Bostock_(médecin)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John Bostock, Jr. (baptisé le 29 juin 1773, décédé le 6 août 1846) est un médecin, scientifique et géologue anglais de Liverpool.   
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>John_Bostock_(m%C3%A9decin)</t>
+          <t>John_Bostock_(médecin)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est un fils du Dr John Bostock, Sr. Il passe quelque temps à New College à Hackney où il assiste Joseph Priestley pour ses conférences sur la chimie et la philosophie naturelle[1], avant d'être diplômé en médecine à l'Université d'Edimbourg [2] et pratiquant la médecine à Liverpool. Il s'installe à Londres en 1817 où il se concentre sur la science générale [3]. En 1819, Bostock est le premier à décrire avec précision le rhume des foins comme une maladie qui affecte les voies respiratoires supérieures [4]. 
-Il donne des conférences sur la chimie au Guy's Hospital et est président de la Geological Society de Londres en 1826 lorsque cet organisme obtient une charte royale et vice-président de la Royal Society en 1832 [3]. 
-Bostock est mort du choléra en 1846 [2]. Il est enterré au cimetière Kensal Green, à Londres. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est un fils du Dr John Bostock, Sr. Il passe quelque temps à New College à Hackney où il assiste Joseph Priestley pour ses conférences sur la chimie et la philosophie naturelle, avant d'être diplômé en médecine à l'Université d'Edimbourg  et pratiquant la médecine à Liverpool. Il s'installe à Londres en 1817 où il se concentre sur la science générale . En 1819, Bostock est le premier à décrire avec précision le rhume des foins comme une maladie qui affecte les voies respiratoires supérieures . 
+Il donne des conférences sur la chimie au Guy's Hospital et est président de la Geological Society de Londres en 1826 lorsque cet organisme obtient une charte royale et vice-président de la Royal Society en 1832 . 
+Bostock est mort du choléra en 1846 . Il est enterré au cimetière Kensal Green, à Londres. 
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>John_Bostock_(m%C3%A9decin)</t>
+          <t>John_Bostock_(médecin)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est l'un des premiers pathologistes chimiques, le premier à réaliser la relation entre la diminution de l'urée dans l'urine lorsqu'elle augmentait dans le sang, tandis que l'albumine dans le sang diminuait à mesure que celle dans l'urine augmentait [5]. Son livre le plus célèbre, System of Physiology, est paru en 1824 [3]. Son seul travail géologique est Sur la purification de l'eau de la Tamise qui est paru en 1826 . 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est l'un des premiers pathologistes chimiques, le premier à réaliser la relation entre la diminution de l'urée dans l'urine lorsqu'elle augmentait dans le sang, tandis que l'albumine dans le sang diminuait à mesure que celle dans l'urine augmentait . Son livre le plus célèbre, System of Physiology, est paru en 1824 . Son seul travail géologique est Sur la purification de l'eau de la Tamise qui est paru en 1826 . 
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>John_Bostock_(m%C3%A9decin)</t>
+          <t>John_Bostock_(médecin)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Famille</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il épouse Anne Yates et ils ont une fille nommée Elizabeth Anne Bostock en 1817. Elle a consacré sa vie à améliorer l'offre d'éducation des femmes. Sa femme est décédée en 1863 [6]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il épouse Anne Yates et ils ont une fille nommée Elizabeth Anne Bostock en 1817. Elle a consacré sa vie à améliorer l'offre d'éducation des femmes. Sa femme est décédée en 1863 . 
 </t>
         </is>
       </c>
